--- a/Excel/StartZoneConfig.xlsx
+++ b/Excel/StartZoneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\SourceCodes\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\Unity\iFunTech\Offitial_Demo\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266646D-12F4-4C45-ACA1-34E2C96C8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E3B93-08F0-40FC-BADF-D9DF60EBE192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47325" yWindow="4395" windowWidth="25620" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="1860" windowWidth="20475" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -441,73 +441,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="21" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Excel/StartZoneConfig.xlsx
+++ b/Excel/StartZoneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Space\SourceCodes\ET\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyGitHub\Unity\OfficialDemo\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0266646D-12F4-4C45-ACA1-34E2C96C8F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF07C5E-84D5-487B-AB4C-E77E8CCDC17A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47325" yWindow="4395" windowWidth="25620" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="1650" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -441,73 +441,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="21" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="21" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
     </row>
